--- a/Tokenizing-test-cases.xlsx
+++ b/Tokenizing-test-cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyueguo/Desktop/Tokenizing Version1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyueguo/Desktop/Tokenizing Version2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65929D-0D06-F040-B3CB-33B68C4B56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A80660C-579C-BD46-A7A2-D946344855BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="25780" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>Comments</t>
   </si>
@@ -1408,6 +1408,97 @@
 Phrase #3 is 'ksjdhf'
 Phrase #4 is '87734'
 Phrase #5 is 'sdjfh'</t>
+  </si>
+  <si>
+    <t>Hi I am Claire, and this is the final project. There are four members in the group and our group leader is Jeel.</t>
+  </si>
+  <si>
+    <t>Sentences #1 is 'Hi'
+Sentences #2 is 'I'
+Sentences #3 is 'am'
+Sentences #4 is 'Claire,'
+Sentences #5 is 'and'
+Sentences #6 is 'this'
+Sentences #7 is 'is'
+Sentences #8 is 'the'
+Sentences #9 is 'final'
+Sentences #10 is 'project.'
+Sentences #11 is 'There'
+Sentences #12 is 'are'
+Sentences #13 is 'four'
+Sentences #14 is 'members'
+Sentences #15 is 'in'
+Sentences #16 is 'the'
+Sentences #17 is 'group'
+Sentences #18 is 'and'
+Sentences #19 is 'our'
+Sentences #20 is 'group'
+Sentences #21 is 'leader'
+Sentences #22 is 'is'
+Sentences #23 is 'Jeel.'</t>
+  </si>
+  <si>
+    <t>The course name is CPR and our teacher is John. We did two group activities, including presentation and the final project.</t>
+  </si>
+  <si>
+    <t>Sentences #1 is 'The'
+Sentences #2 is 'course'
+Sentences #3 is 'name'
+Sentences #4 is 'is'
+Sentences #5 is 'CPR'
+Sentences #6 is 'and'
+Sentences #7 is 'our'
+Sentences #8 is 'teacher'
+Sentences #9 is 'is'
+Sentences #10 is 'John.'
+Sentences #11 is 'We'
+Sentences #12 is 'did'
+Sentences #13 is 'two'
+Sentences #14 is 'group'
+Sentences #15 is 'activities,'
+Sentences #16 is 'including'
+Sentences #17 is 'presentation'
+Sentences #18 is 'and'
+Sentences #19 is 'the'
+Sentences #20 is 'final'
+Sentences #21 is 'project.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am excited to start the second semester. The first semester is hard for me, since i do not have any related background. But i improved a lot in the first semester. </t>
+  </si>
+  <si>
+    <t>Sentences #1 is 'i'
+Sentences #2 is 'am'
+Sentences #3 is 'excited'
+Sentences #4 is 'to'
+Sentences #5 is 'start'
+Sentences #6 is 'the'
+Sentences #7 is 'second'
+Sentences #8 is 'semester.'
+Sentences #9 is 'The'
+Sentences #10 is 'first'
+Sentences #11 is 'semester'
+Sentences #12 is 'is'
+Sentences #13 is 'hard'
+Sentences #14 is 'for'
+Sentences #15 is 'me,'
+Sentences #16 is 'since'
+Sentences #17 is 'i'
+Sentences #18 is 'do'
+Sentences #19 is 'not'
+Sentences #20 is 'have'
+Sentences #21 is 'any'
+Sentences #22 is 'related'
+Sentences #23 is 'background.'
+Sentences #24 is 'But'
+Sentences #25 is 'i'
+Sentences #26 is 'improved'
+Sentences #27 is 'a'
+Sentences #28 is 'lot'
+Sentences #29 is 'in'
+Sentences #30 is 'the'
+Sentences #31 is 'first'
+Sentences #32 is 'semester.'</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1813,6 +1904,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1821,7 +1938,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1977,6 +2094,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,7 +2109,22 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2349,22 +2484,22 @@
       <c r="B1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="55" t="str">
+      <c r="C1" s="56" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="37"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2554,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2564,7 +2699,7 @@
     <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -2576,23 +2711,23 @@
       <c r="B1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="55" t="str">
+      <c r="C1" s="56" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Tokenizing_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2724,13 +2859,13 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2915,7 @@
       <c r="F12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="53">
         <v>44783</v>
       </c>
     </row>
@@ -2803,7 +2938,7 @@
       <c r="F13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="53">
         <v>44783</v>
       </c>
     </row>
@@ -2826,7 +2961,7 @@
       <c r="F14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="53">
         <v>44783</v>
       </c>
     </row>
@@ -2858,13 +2993,13 @@
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="20" t="s">
         <v>11</v>
       </c>
@@ -2872,20 +3007,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -2895,32 +3030,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="33"/>
+    <row r="20" spans="1:7" s="28" customFormat="1" ht="319" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="63">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="28" customFormat="1" ht="293" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="63">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="28" customFormat="1" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="63">
+        <v>44790</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
